--- a/src/unit_tests/TestCases.xlsx
+++ b/src/unit_tests/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -137,19 +137,44 @@
   </si>
   <si>
     <t>search results that include something with zero downloads (e.g. appveyor)</t>
+  </si>
+  <si>
+    <t>google analytics working ?</t>
+  </si>
+  <si>
+    <t>sequence for animated gif
+ click
+ hover title column
+ hover &amp; click publisher column
+ search 'docker'
+ hover % column
+ sort columns
+ copy to clipboard / paste in excel
+ vsts tab
+ vscode tab</t>
+  </si>
+  <si>
+    <t>french / spanish
+ chrome desktop shortcut target = "C:\Program Files (x86)\Google\Chrome\Application\chrome.exe" --lang=fr --user-data-dir=c:\chrome-profile-fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -223,20 +248,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -553,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -870,6 +898,21 @@
         <v>40</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
